--- a/OtherMaterials/DatasetFitsWorkbook.xlsx
+++ b/OtherMaterials/DatasetFitsWorkbook.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/Graduation/Dissertation/OtherMaterials/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34814FBC-8E9F-D04C-BE02-18C1C7E1A165}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="35680" windowHeight="19380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>Do all grid jobs with default Tc and Tvw time randomization</t>
   </si>
@@ -71,9 +72,6 @@
     <t>Pileup energy scan</t>
   </si>
   <si>
-    <t>CBO envelope checks</t>
-  </si>
-  <si>
     <t>Fixed k_loss scan</t>
   </si>
   <si>
@@ -86,9 +84,6 @@
     <t>maybe just do on-off with this</t>
   </si>
   <si>
-    <t>station 12/18, fixed parameters, different functional form</t>
-  </si>
-  <si>
     <t>Don't necessarily do all fits for all datasets - in some cases one should be enough</t>
   </si>
   <si>
@@ -98,15 +93,122 @@
     <t>fits done</t>
   </si>
   <si>
-    <t>grid jobs going or done</t>
+    <t>Lost muons on/off</t>
+  </si>
+  <si>
+    <t>Toy MC randomization comparison with VW randomization</t>
+  </si>
+  <si>
+    <t>2 grid jobs held and resubmitted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take as my error more than 1 sigma due to unknown gain issue </t>
+  </si>
+  <si>
+    <t>use plots from fixed cbo tau</t>
+  </si>
+  <si>
+    <t>Plots to make</t>
+  </si>
+  <si>
+    <t>dataset combined lost muon fractions</t>
+  </si>
+  <si>
+    <t>other dataset combination plots</t>
+  </si>
+  <si>
+    <t>use plots from fixed cbo A A</t>
+  </si>
+  <si>
+    <t>correlation matrices</t>
+  </si>
+  <si>
+    <t>pileup spectra plots</t>
+  </si>
+  <si>
+    <t>Pileup deadtime scan</t>
+  </si>
+  <si>
+    <t>Make plots and fits from slide 27 of Elba talk</t>
+  </si>
+  <si>
+    <t>g-2 period scan</t>
+  </si>
+  <si>
+    <t>muon lifetime scan</t>
+  </si>
+  <si>
+    <t>Energy threshold scan</t>
+  </si>
+  <si>
+    <t>FFTs and residual plots (careful with hardcoded lines)</t>
+  </si>
+  <si>
+    <t>Fit end scans</t>
+  </si>
+  <si>
+    <t>Other things to do/ think about/ argue away</t>
+  </si>
+  <si>
+    <t>Gain - short term double pulse</t>
+  </si>
+  <si>
+    <t>Gain - unseen gain changes</t>
+  </si>
+  <si>
+    <t>Fit start scan comparison of pileup time shifted data</t>
+  </si>
+  <si>
+    <t>CBO frequency</t>
+  </si>
+  <si>
+    <t>station 12/18, vary fixed parameters</t>
+  </si>
+  <si>
+    <t>CBO envelope</t>
+  </si>
+  <si>
+    <t>different functional forms</t>
+  </si>
+  <si>
+    <t>Bunch number analysis</t>
+  </si>
+  <si>
+    <t>Row number analysis</t>
+  </si>
+  <si>
+    <t>Pileup gap time scan</t>
+  </si>
+  <si>
+    <t>grid jobs submitted, going, or done</t>
+  </si>
+  <si>
+    <t>ready to be fit</t>
+  </si>
+  <si>
+    <t>how important is this actually?</t>
+  </si>
+  <si>
+    <t>hadding</t>
+  </si>
+  <si>
+    <t>use plots from fixed cbo phases amps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -146,10 +248,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -159,6 +263,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -426,57 +533,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="49.1640625" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" customWidth="1"/>
+    <col min="10" max="12" width="40" customWidth="1"/>
+    <col min="13" max="13" width="49.1640625" customWidth="1"/>
+    <col min="14" max="14" width="20.83203125" customWidth="1"/>
+    <col min="15" max="15" width="57.1640625" customWidth="1"/>
+    <col min="16" max="16" width="28.6640625" customWidth="1"/>
+    <col min="17" max="17" width="26.5" customWidth="1"/>
+    <col min="18" max="18" width="28.6640625" customWidth="1"/>
+    <col min="19" max="19" width="20" customWidth="1"/>
+    <col min="20" max="20" width="19.83203125" customWidth="1"/>
+    <col min="21" max="21" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -490,62 +602,216 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
         <v>14</v>
       </c>
-      <c r="J6" t="s">
+      <c r="P6" t="s">
         <v>15</v>
       </c>
-      <c r="K6" t="s">
+      <c r="Q6" t="s">
         <v>16</v>
       </c>
-      <c r="L6" t="s">
+      <c r="R6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" t="s">
+        <v>35</v>
+      </c>
+      <c r="U6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" t="s">
         <v>17</v>
       </c>
-      <c r="M6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="H8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/OtherMaterials/DatasetFitsWorkbook.xlsx
+++ b/OtherMaterials/DatasetFitsWorkbook.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/Graduation/Dissertation/OtherMaterials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/GraduationRequirements/Dissertation/OtherMaterials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34814FBC-8E9F-D04C-BE02-18C1C7E1A165}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="35680" windowHeight="19380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>Do all grid jobs with default Tc and Tvw time randomization</t>
   </si>
@@ -97,9 +96,6 @@
   </si>
   <si>
     <t>Toy MC randomization comparison with VW randomization</t>
-  </si>
-  <si>
-    <t>2 grid jobs held and resubmitted</t>
   </si>
   <si>
     <t xml:space="preserve">take as my error more than 1 sigma due to unknown gain issue </t>
@@ -198,7 +194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -533,17 +529,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D24" sqref="D24"/>
+      <selection pane="topRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
@@ -568,12 +564,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -588,230 +578,243 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>12</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
         <v>32</v>
       </c>
-      <c r="K6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="L8" t="s">
         <v>43</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M8" t="s">
         <v>45</v>
       </c>
-      <c r="N6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R6" t="s">
-        <v>19</v>
-      </c>
-      <c r="S6" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6" t="s">
-        <v>35</v>
-      </c>
-      <c r="U6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="O8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q8" t="s">
         <v>17</v>
       </c>
-      <c r="R7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
+      <c r="R8" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="H8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E9" s="4"/>
       <c r="H9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="J9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="H10" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>40</v>
+      <c r="A17" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>27</v>
+      <c r="A27" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/OtherMaterials/DatasetFitsWorkbook.xlsx
+++ b/OtherMaterials/DatasetFitsWorkbook.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>Do all grid jobs with default Tc and Tvw time randomization</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>use plots from fixed cbo phases amps</t>
+  </si>
+  <si>
+    <t>ready to be hadded</t>
   </si>
 </sst>
 </file>
@@ -533,8 +536,8 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D20" sqref="D20"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -720,11 +723,15 @@
       <c r="H10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
@@ -740,7 +747,9 @@
         <v>28</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>

--- a/OtherMaterials/DatasetFitsWorkbook.xlsx
+++ b/OtherMaterials/DatasetFitsWorkbook.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/GraduationRequirements/Dissertation/OtherMaterials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/Graduation/Dissertation/OtherMaterials/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB786B8-EBC3-6642-961D-972892527EA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34600" windowHeight="18800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>Do all grid jobs with default Tc and Tvw time randomization</t>
   </si>
@@ -191,13 +192,13 @@
     <t>use plots from fixed cbo phases amps</t>
   </si>
   <si>
-    <t>ready to be hadded</t>
+    <t>hadding - started throwing errors - probably need to resubmit jobs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -532,12 +533,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I14" sqref="I14"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,7 +552,8 @@
     <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="30.83203125" customWidth="1"/>
-    <col min="10" max="12" width="40" customWidth="1"/>
+    <col min="10" max="10" width="56.33203125" customWidth="1"/>
+    <col min="11" max="12" width="40" customWidth="1"/>
     <col min="13" max="13" width="49.1640625" customWidth="1"/>
     <col min="14" max="14" width="20.83203125" customWidth="1"/>
     <col min="15" max="15" width="57.1640625" customWidth="1"/>
@@ -730,7 +732,7 @@
         <v>50</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -750,8 +752,12 @@
       <c r="H11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>

--- a/OtherMaterials/DatasetFitsWorkbook.xlsx
+++ b/OtherMaterials/DatasetFitsWorkbook.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/Graduation/Dissertation/OtherMaterials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/GraduationRequirements/Dissertation/OtherMaterials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB786B8-EBC3-6642-961D-972892527EA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34600" windowHeight="18800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>Do all grid jobs with default Tc and Tvw time randomization</t>
   </si>
@@ -192,13 +191,19 @@
     <t>use plots from fixed cbo phases amps</t>
   </si>
   <si>
-    <t>hadding - started throwing errors - probably need to resubmit jobs</t>
+    <t>looks like 12 jobs didn't run properly</t>
+  </si>
+  <si>
+    <t>looks like many jobs are missing</t>
+  </si>
+  <si>
+    <t>ready to be hadded</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -533,12 +538,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E21" sqref="E21"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -560,8 +565,8 @@
     <col min="16" max="16" width="28.6640625" customWidth="1"/>
     <col min="17" max="17" width="26.5" customWidth="1"/>
     <col min="18" max="18" width="28.6640625" customWidth="1"/>
-    <col min="19" max="19" width="20" customWidth="1"/>
-    <col min="20" max="20" width="19.83203125" customWidth="1"/>
+    <col min="19" max="19" width="22" customWidth="1"/>
+    <col min="20" max="20" width="28" customWidth="1"/>
     <col min="21" max="21" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -708,8 +713,12 @@
       <c r="K9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="S9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -732,10 +741,14 @@
         <v>50</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -743,14 +756,14 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="4"/>
       <c r="H11" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>52</v>
@@ -758,9 +771,15 @@
       <c r="J11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">

--- a/OtherMaterials/DatasetFitsWorkbook.xlsx
+++ b/OtherMaterials/DatasetFitsWorkbook.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/GraduationRequirements/Dissertation/OtherMaterials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/Graduation/Dissertation/OtherMaterials/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC329C1-EE9B-0344-AF9A-51C13BCF442E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35580" windowHeight="19600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Do all grid jobs with default Tc and Tvw time randomization</t>
   </si>
@@ -185,25 +186,19 @@
     <t>how important is this actually?</t>
   </si>
   <si>
-    <t>hadding</t>
-  </si>
-  <si>
     <t>use plots from fixed cbo phases amps</t>
   </si>
   <si>
-    <t>looks like 12 jobs didn't run properly</t>
-  </si>
-  <si>
-    <t>looks like many jobs are missing</t>
-  </si>
-  <si>
-    <t>ready to be hadded</t>
+    <t>Bunch number fits</t>
+  </si>
+  <si>
+    <t>Don't spend too much time on this, maybe only do it for the Endgame</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -538,12 +533,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J15" sqref="J15"/>
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,11 +548,11 @@
     <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="24.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="30.83203125" customWidth="1"/>
-    <col min="10" max="10" width="56.33203125" customWidth="1"/>
+    <col min="10" max="10" width="39.83203125" customWidth="1"/>
     <col min="11" max="12" width="40" customWidth="1"/>
     <col min="13" max="13" width="49.1640625" customWidth="1"/>
     <col min="14" max="14" width="20.83203125" customWidth="1"/>
@@ -568,9 +563,10 @@
     <col min="19" max="19" width="22" customWidth="1"/>
     <col min="20" max="20" width="28" customWidth="1"/>
     <col min="21" max="21" width="20.6640625" customWidth="1"/>
+    <col min="22" max="22" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,30 +574,30 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -665,8 +661,11 @@
       <c r="U7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="J8" t="s">
         <v>32</v>
       </c>
@@ -688,8 +687,11 @@
       <c r="R8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -701,6 +703,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="4"/>
+      <c r="F9" s="1"/>
       <c r="H9" s="2" t="s">
         <v>50</v>
       </c>
@@ -714,13 +717,13 @@
         <v>50</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -729,13 +732,13 @@
         <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>50</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>50</v>
@@ -744,13 +747,13 @@
         <v>50</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -766,22 +769,22 @@
         <v>50</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>

--- a/OtherMaterials/DatasetFitsWorkbook.xlsx
+++ b/OtherMaterials/DatasetFitsWorkbook.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/Graduation/Dissertation/OtherMaterials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/GraduationRequirements/Dissertation/OtherMaterials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC329C1-EE9B-0344-AF9A-51C13BCF442E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35580" windowHeight="19600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -198,7 +197,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -533,12 +532,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V24" sqref="V24"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -734,6 +733,7 @@
       <c r="D10" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="F10" s="1"/>
       <c r="H10" s="2" t="s">
         <v>50</v>
       </c>

--- a/OtherMaterials/DatasetFitsWorkbook.xlsx
+++ b/OtherMaterials/DatasetFitsWorkbook.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/GraduationRequirements/Dissertation/OtherMaterials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/Graduation/Dissertation/OtherMaterials/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8BA620-41F2-CC4E-AF84-3E95BC365E11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34920" windowHeight="18340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>Do all grid jobs with default Tc and Tvw time randomization</t>
   </si>
@@ -192,12 +193,18 @@
   </si>
   <si>
     <t>Don't spend too much time on this, maybe only do it for the Endgame</t>
+  </si>
+  <si>
+    <t>3500 MeV cut for pileup plots</t>
+  </si>
+  <si>
+    <t>hadding in 01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -532,12 +539,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E14" sqref="E14"/>
+      <selection pane="topRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,6 +728,12 @@
       <c r="T9" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="U9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -752,19 +765,24 @@
       <c r="T10" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="U10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="4"/>
+      <c r="F11" s="1"/>
       <c r="H11" s="2" t="s">
         <v>50</v>
       </c>
@@ -781,6 +799,12 @@
         <v>50</v>
       </c>
       <c r="T11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V11" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -817,6 +841,11 @@
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">

--- a/OtherMaterials/DatasetFitsWorkbook.xlsx
+++ b/OtherMaterials/DatasetFitsWorkbook.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/Graduation/Dissertation/OtherMaterials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/GraduationRequirements/Dissertation/OtherMaterials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8BA620-41F2-CC4E-AF84-3E95BC365E11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34920" windowHeight="18340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Do all grid jobs with default Tc and Tvw time randomization</t>
   </si>
@@ -198,13 +197,13 @@
     <t>3500 MeV cut for pileup plots</t>
   </si>
   <si>
-    <t>hadding in 01</t>
+    <t>same R mean as without 2N CBO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -539,19 +538,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="24.83203125" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" customWidth="1"/>
@@ -702,9 +701,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
@@ -740,8 +737,8 @@
         <v>4</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
-        <v>50</v>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>52</v>
@@ -802,7 +799,7 @@
         <v>50</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="V11" s="2" t="s">
         <v>50</v>

--- a/OtherMaterials/DatasetFitsWorkbook.xlsx
+++ b/OtherMaterials/DatasetFitsWorkbook.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/GraduationRequirements/Dissertation/OtherMaterials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/Graduation/Dissertation/OtherMaterials/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E03D30-8012-1843-B0DF-BA8935DD5384}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="37680" windowHeight="20700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>Do all grid jobs with default Tc and Tvw time randomization</t>
   </si>
@@ -80,9 +81,6 @@
     <t>IFG lifetime</t>
   </si>
   <si>
-    <t>maybe just do on-off with this</t>
-  </si>
-  <si>
     <t>Don't necessarily do all fits for all datasets - in some cases one should be enough</t>
   </si>
   <si>
@@ -198,12 +196,18 @@
   </si>
   <si>
     <t>same R mean as without 2N CBO</t>
+  </si>
+  <si>
+    <t>use plots from 9d fits</t>
+  </si>
+  <si>
+    <t>maybe just do on-off-twice with this</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -538,12 +542,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V21" sqref="V21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,8 +566,8 @@
     <col min="13" max="13" width="49.1640625" customWidth="1"/>
     <col min="14" max="14" width="20.83203125" customWidth="1"/>
     <col min="15" max="15" width="57.1640625" customWidth="1"/>
-    <col min="16" max="16" width="28.6640625" customWidth="1"/>
-    <col min="17" max="17" width="26.5" customWidth="1"/>
+    <col min="16" max="16" width="36.83203125" customWidth="1"/>
+    <col min="17" max="17" width="34.5" customWidth="1"/>
     <col min="18" max="18" width="28.6640625" customWidth="1"/>
     <col min="19" max="19" width="22" customWidth="1"/>
     <col min="20" max="20" width="28" customWidth="1"/>
@@ -586,17 +590,17 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -616,7 +620,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -631,19 +635,19 @@
         <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O7" t="s">
         <v>14</v>
@@ -655,45 +659,45 @@
         <v>16</v>
       </c>
       <c r="R7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" t="s">
         <v>33</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>34</v>
       </c>
-      <c r="U7" t="s">
-        <v>35</v>
-      </c>
       <c r="V7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="J8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P8" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="Q8" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="R8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -703,33 +707,22 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="1"/>
-      <c r="H9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
       <c r="U9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -738,35 +731,26 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="H10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="K10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
       <c r="U10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -776,108 +760,107 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="1"/>
-      <c r="H11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
       <c r="U11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/OtherMaterials/DatasetFitsWorkbook.xlsx
+++ b/OtherMaterials/DatasetFitsWorkbook.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/Graduation/Dissertation/OtherMaterials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/GraduationRequirements/Dissertation/OtherMaterials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E03D30-8012-1843-B0DF-BA8935DD5384}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="37680" windowHeight="20700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>Do all grid jobs with default Tc and Tvw time randomization</t>
   </si>
@@ -207,7 +206,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -542,19 +541,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C31" sqref="C31"/>
+      <selection pane="topRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="3" max="3" width="38.5" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="24.83203125" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" customWidth="1"/>
@@ -783,15 +782,33 @@
         <v>6</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">

--- a/OtherMaterials/DatasetFitsWorkbook.xlsx
+++ b/OtherMaterials/DatasetFitsWorkbook.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/GraduationRequirements/Dissertation/OtherMaterials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/Graduation/Dissertation/OtherMaterials/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24836968-84BB-2744-BC88-C210C791A943}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="840" yWindow="880" windowWidth="34980" windowHeight="19600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
   <si>
     <t>Do all grid jobs with default Tc and Tvw time randomization</t>
   </si>
@@ -188,9 +189,6 @@
     <t>Bunch number fits</t>
   </si>
   <si>
-    <t>Don't spend too much time on this, maybe only do it for the Endgame</t>
-  </si>
-  <si>
     <t>3500 MeV cut for pileup plots</t>
   </si>
   <si>
@@ -200,13 +198,61 @@
     <t>use plots from 9d fits</t>
   </si>
   <si>
-    <t>maybe just do on-off-twice with this</t>
+    <t>maybe just do on-off-twice with this - maybe skip this entirely</t>
+  </si>
+  <si>
+    <t>grid jobs submitted for on-off-twice</t>
+  </si>
+  <si>
+    <t>note to keep in mind</t>
+  </si>
+  <si>
+    <t>move lost muons and single iteration highkick stuff over to thesis directory</t>
+  </si>
+  <si>
+    <t>with - without</t>
+  </si>
+  <si>
+    <t>-31.4 ppb</t>
+  </si>
+  <si>
+    <t>-45.7 ppb</t>
+  </si>
+  <si>
+    <t>-6.1 ppb</t>
+  </si>
+  <si>
+    <t>1 sigma error: 0.338, slope = -3.5 ppb</t>
+  </si>
+  <si>
+    <t>1 sigma error: 0.170, slope = -18.3 ppb</t>
+  </si>
+  <si>
+    <t>1 sigma error: 0.038, slope = -2.6 ppb</t>
+  </si>
+  <si>
+    <t>grid/pnfs will be down Wednesday for a bit</t>
+  </si>
+  <si>
+    <t>Only use R plot for simplicity</t>
+  </si>
+  <si>
+    <t>use plots from all free</t>
+  </si>
+  <si>
+    <t>9 grid jobs in both cases were held and returned bad clusters hits files - not sure why and will probably need to rerun</t>
+  </si>
+  <si>
+    <t>maybe do a couple points on either side of the chi2 curve - find that curve or remake it - maybe do .5 and 1.5</t>
+  </si>
+  <si>
+    <t>sent grid jobs off for .5, 1.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -224,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,6 +289,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -256,12 +308,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,17 +595,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C17" sqref="C17"/>
+      <selection pane="topRight" activeCell="K21" sqref="C21:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="1" max="1" width="68.5" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="38.5" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
@@ -565,8 +619,8 @@
     <col min="13" max="13" width="49.1640625" customWidth="1"/>
     <col min="14" max="14" width="20.83203125" customWidth="1"/>
     <col min="15" max="15" width="57.1640625" customWidth="1"/>
-    <col min="16" max="16" width="36.83203125" customWidth="1"/>
-    <col min="17" max="17" width="34.5" customWidth="1"/>
+    <col min="16" max="16" width="98" customWidth="1"/>
+    <col min="17" max="17" width="63.1640625" customWidth="1"/>
     <col min="18" max="18" width="28.6640625" customWidth="1"/>
     <col min="19" max="19" width="22" customWidth="1"/>
     <col min="20" max="20" width="28" customWidth="1"/>
@@ -591,6 +645,9 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
+      <c r="M3" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -603,280 +660,329 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="4"/>
+      <c r="P7" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>36</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>12</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I8" t="s">
         <v>13</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J8" t="s">
         <v>30</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K8" t="s">
         <v>47</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L8" t="s">
         <v>41</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M8" t="s">
         <v>43</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N8" t="s">
         <v>20</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O8" t="s">
         <v>14</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P8" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q8" t="s">
         <v>16</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R8" t="s">
         <v>18</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S8" t="s">
         <v>32</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T8" t="s">
         <v>33</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U8" t="s">
         <v>34</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J8" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
         <v>31</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L9" t="s">
         <v>42</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M9" t="s">
         <v>44</v>
       </c>
-      <c r="O8" t="s">
+      <c r="N9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" t="s">
         <v>22</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P9" t="s">
         <v>57</v>
       </c>
-      <c r="Q8" t="s">
-        <v>57</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="Q9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" t="s">
         <v>50</v>
       </c>
-      <c r="V8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>49</v>
+      <c r="V9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E10" s="4"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
+      <c r="N10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>49</v>
+      <c r="V10" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>51</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="K11" s="1"/>
+      <c r="N11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>49</v>
+      <c r="V11" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="N12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>40</v>
       </c>
     </row>

--- a/OtherMaterials/DatasetFitsWorkbook.xlsx
+++ b/OtherMaterials/DatasetFitsWorkbook.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/Graduation/Dissertation/OtherMaterials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/GraduationRequirements/Dissertation/OtherMaterials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24836968-84BB-2744-BC88-C210C791A943}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="880" windowWidth="34980" windowHeight="19600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
   <si>
     <t>Do all grid jobs with default Tc and Tvw time randomization</t>
   </si>
@@ -201,9 +200,6 @@
     <t>maybe just do on-off-twice with this - maybe skip this entirely</t>
   </si>
   <si>
-    <t>grid jobs submitted for on-off-twice</t>
-  </si>
-  <si>
     <t>note to keep in mind</t>
   </si>
   <si>
@@ -240,19 +236,16 @@
     <t>use plots from all free</t>
   </si>
   <si>
-    <t>9 grid jobs in both cases were held and returned bad clusters hits files - not sure why and will probably need to rerun</t>
-  </si>
-  <si>
     <t>maybe do a couple points on either side of the chi2 curve - find that curve or remake it - maybe do .5 and 1.5</t>
   </si>
   <si>
-    <t>sent grid jobs off for .5, 1.5</t>
+    <t>grid jobs submitted at 0, 0.5, 1, 1.5, 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -595,12 +588,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K21" sqref="C21:K21"/>
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,7 +639,7 @@
         <v>17</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -661,13 +654,13 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="P7" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -749,13 +742,13 @@
         <v>44</v>
       </c>
       <c r="N9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O9" t="s">
         <v>22</v>
       </c>
       <c r="P9" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="Q9" t="s">
         <v>56</v>
@@ -764,7 +757,7 @@
         <v>50</v>
       </c>
       <c r="V9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -784,10 +777,10 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="N10" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>49</v>
@@ -798,7 +791,7 @@
         <v>49</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -821,10 +814,10 @@
       </c>
       <c r="K11" s="1"/>
       <c r="N11" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>49</v>
@@ -855,13 +848,13 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="N12" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -869,7 +862,7 @@
         <v>49</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -910,11 +903,9 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>72</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P14" s="4"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">

--- a/OtherMaterials/DatasetFitsWorkbook.xlsx
+++ b/OtherMaterials/DatasetFitsWorkbook.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/GraduationRequirements/Dissertation/OtherMaterials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/Graduation/Dissertation/OtherMaterials/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D05FF3C-F786-1547-B2B3-1E670F6C2922}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="36800" windowHeight="20260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
   <si>
     <t>Do all grid jobs with default Tc and Tvw time randomization</t>
   </si>
@@ -143,12 +144,6 @@
     <t>Other things to do/ think about/ argue away</t>
   </si>
   <si>
-    <t>Gain - short term double pulse</t>
-  </si>
-  <si>
-    <t>Gain - unseen gain changes</t>
-  </si>
-  <si>
     <t>Fit start scan comparison of pileup time shifted data</t>
   </si>
   <si>
@@ -164,12 +159,6 @@
     <t>different functional forms</t>
   </si>
   <si>
-    <t>Bunch number analysis</t>
-  </si>
-  <si>
-    <t>Row number analysis</t>
-  </si>
-  <si>
     <t>Pileup gap time scan</t>
   </si>
   <si>
@@ -179,9 +168,6 @@
     <t>ready to be fit</t>
   </si>
   <si>
-    <t>how important is this actually?</t>
-  </si>
-  <si>
     <t>use plots from fixed cbo phases amps</t>
   </si>
   <si>
@@ -197,15 +183,9 @@
     <t>use plots from 9d fits</t>
   </si>
   <si>
-    <t>maybe just do on-off-twice with this - maybe skip this entirely</t>
-  </si>
-  <si>
     <t>note to keep in mind</t>
   </si>
   <si>
-    <t>move lost muons and single iteration highkick stuff over to thesis directory</t>
-  </si>
-  <si>
     <t>with - without</t>
   </si>
   <si>
@@ -236,16 +216,70 @@
     <t>use plots from all free</t>
   </si>
   <si>
-    <t>maybe do a couple points on either side of the chi2 curve - find that curve or remake it - maybe do .5 and 1.5</t>
-  </si>
-  <si>
-    <t>grid jobs submitted at 0, 0.5, 1, 1.5, 2</t>
+    <t>maybe skip this entirely</t>
+  </si>
+  <si>
+    <t>probably skip this</t>
+  </si>
+  <si>
+    <t>Gain - unseen gain changes - omit and study after thesis</t>
+  </si>
+  <si>
+    <t>Decisions about things</t>
+  </si>
+  <si>
+    <t>HighKick - analyze dataset as is and present results</t>
+  </si>
+  <si>
+    <t>Bunch number analysis - just show R plot and maybe one or two others</t>
+  </si>
+  <si>
+    <t>Row number analysis - ignore this</t>
+  </si>
+  <si>
+    <t>Gain - short term double pulse - work with James to produce clusters for one dataset</t>
+  </si>
+  <si>
+    <t>IFG lifetime - skip for thesis as the amplitude scan is pretty much the same thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bin width scan - point towards earlier results showing no trend and FR plots showing choice of default bin width </t>
+  </si>
+  <si>
+    <t>Bin edge scan</t>
+  </si>
+  <si>
+    <t>study to be ignored or omitted for thesis with justification, potentially add in later if there is time</t>
+  </si>
+  <si>
+    <t>Bin edge scan - similar to bin width scan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grid jobs submitted at 0, 0.5, 1, 1.5, 2 </t>
+  </si>
+  <si>
+    <t>use comparison plots</t>
+  </si>
+  <si>
+    <t>submitted another job with 1.99 multiplier since the one at 2 gave a very different result</t>
+  </si>
+  <si>
+    <t>Lost muons various subtractions</t>
+  </si>
+  <si>
+    <t>Only use results from Endgame tests</t>
+  </si>
+  <si>
+    <t>See lost muons comparison excel spreadsheet</t>
+  </si>
+  <si>
+    <t>ready to be fit - double check this without 2N CBO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -263,7 +297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +322,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -301,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -309,6 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,19 +629,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P16" sqref="P16"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="68.5" customWidth="1"/>
+    <col min="1" max="1" width="94.1640625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="38.5" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="24.83203125" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" customWidth="1"/>
@@ -611,17 +652,17 @@
     <col min="11" max="12" width="40" customWidth="1"/>
     <col min="13" max="13" width="49.1640625" customWidth="1"/>
     <col min="14" max="14" width="20.83203125" customWidth="1"/>
-    <col min="15" max="15" width="57.1640625" customWidth="1"/>
-    <col min="16" max="16" width="98" customWidth="1"/>
-    <col min="17" max="17" width="63.1640625" customWidth="1"/>
-    <col min="18" max="18" width="28.6640625" customWidth="1"/>
-    <col min="19" max="19" width="22" customWidth="1"/>
-    <col min="20" max="20" width="28" customWidth="1"/>
-    <col min="21" max="21" width="20.6640625" customWidth="1"/>
-    <col min="22" max="22" width="58" customWidth="1"/>
+    <col min="15" max="16" width="57.1640625" customWidth="1"/>
+    <col min="17" max="17" width="98" customWidth="1"/>
+    <col min="18" max="18" width="22.6640625" customWidth="1"/>
+    <col min="19" max="20" width="28.6640625" customWidth="1"/>
+    <col min="21" max="21" width="22" customWidth="1"/>
+    <col min="22" max="22" width="28" customWidth="1"/>
+    <col min="23" max="23" width="20.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -629,352 +670,412 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="P7" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>12</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
         <v>13</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J9" t="s">
         <v>30</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" t="s">
+        <v>72</v>
+      </c>
+      <c r="U9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" t="s">
+        <v>34</v>
+      </c>
+      <c r="X9" t="s">
         <v>47</v>
       </c>
-      <c r="L8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" t="s">
-        <v>14</v>
-      </c>
-      <c r="P8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R8" t="s">
-        <v>18</v>
-      </c>
-      <c r="S8" t="s">
-        <v>32</v>
-      </c>
-      <c r="T8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V8" t="s">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" t="s">
-        <v>59</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="O10" t="s">
         <v>22</v>
       </c>
-      <c r="P9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>56</v>
-      </c>
-      <c r="R9" t="s">
-        <v>50</v>
-      </c>
-      <c r="V9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="P10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" t="s">
+        <v>62</v>
+      </c>
+      <c r="S10" t="s">
+        <v>63</v>
+      </c>
+      <c r="T10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="N10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="N11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>46</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="N12" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="N13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P14" s="4"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="H14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/OtherMaterials/DatasetFitsWorkbook.xlsx
+++ b/OtherMaterials/DatasetFitsWorkbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/Graduation/Dissertation/OtherMaterials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D05FF3C-F786-1547-B2B3-1E670F6C2922}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1695975-6665-1640-AAEC-4CEE18D8DC18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="36800" windowHeight="20260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
   <si>
     <t>Do all grid jobs with default Tc and Tvw time randomization</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Pileup deadtime scan</t>
   </si>
   <si>
-    <t>Make plots and fits from slide 27 of Elba talk</t>
-  </si>
-  <si>
     <t>g-2 period scan</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
     <t>1 sigma error: 0.038, slope = -2.6 ppb</t>
   </si>
   <si>
-    <t>grid/pnfs will be down Wednesday for a bit</t>
-  </si>
-  <si>
     <t>Only use R plot for simplicity</t>
   </si>
   <si>
@@ -261,9 +255,6 @@
     <t>use comparison plots</t>
   </si>
   <si>
-    <t>submitted another job with 1.99 multiplier since the one at 2 gave a very different result</t>
-  </si>
-  <si>
     <t>Lost muons various subtractions</t>
   </si>
   <si>
@@ -273,7 +264,43 @@
     <t>See lost muons comparison excel spreadsheet</t>
   </si>
   <si>
-    <t>ready to be fit - double check this without 2N CBO</t>
+    <t>use plots from fits with all terms</t>
+  </si>
+  <si>
+    <t>point at 2 has a significantly different chi2 and R, not sure what to do about it</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>slope is steeper than other R method fits and negative compared to positive slopes</t>
+  </si>
+  <si>
+    <t>I think for this error I'll need to show the plots I have and then calculate the systematic error slightly differently to how I was planning - mention extraneous points but still show that the slope is flatter than in the T method - take uncertainties from personal communication with Anna or with width of T method curve - final error is still small</t>
+  </si>
+  <si>
+    <t>Endgame dataset has the most lost muons and the largest fraction of lost muons, that combined with the negligible errors for the different lost muon subractions means that I should be able to just take the Endgame results</t>
+  </si>
+  <si>
+    <t>STDP</t>
+  </si>
+  <si>
+    <t>Wait for Anna's production of a dataset with no SDTP and look at the results with that - maybe just one dataset or maybe more than one</t>
+  </si>
+  <si>
+    <t>Potentially do 12/18 for all datasets, but then the individual fixed parameters variation for only the Endgame (and maybe the 9d) - probably make another excel spreadsheet</t>
+  </si>
+  <si>
+    <t>With and without auto-scaling, in thesis show plots from slide 27 of Elba talk using 9d dataset results</t>
+  </si>
+  <si>
+    <t>-40.1 ppb</t>
+  </si>
+  <si>
+    <t>my only worry here is that the lost muons on/off column for the various datasets is a lot larger for the non-endgame datasets surprisingly so I might want to do it for one of those</t>
+  </si>
+  <si>
+    <t>1 sigma error: 0.697, slope = -7.1 ppb</t>
   </si>
 </sst>
 </file>
@@ -341,21 +368,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9FA9"/>
+      <color rgb="FFCA646B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -630,16 +684,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X46"/>
+  <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D22" sqref="D22"/>
+      <selection pane="topRight" activeCell="M20" sqref="D20:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="94.1640625" customWidth="1"/>
+    <col min="1" max="1" width="70.5" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
@@ -653,62 +707,61 @@
     <col min="13" max="13" width="49.1640625" customWidth="1"/>
     <col min="14" max="14" width="20.83203125" customWidth="1"/>
     <col min="15" max="16" width="57.1640625" customWidth="1"/>
-    <col min="17" max="17" width="98" customWidth="1"/>
+    <col min="17" max="17" width="70.6640625" customWidth="1"/>
     <col min="18" max="18" width="22.6640625" customWidth="1"/>
-    <col min="19" max="20" width="28.6640625" customWidth="1"/>
-    <col min="21" max="21" width="22" customWidth="1"/>
-    <col min="22" max="22" width="28" customWidth="1"/>
-    <col min="23" max="23" width="20.6640625" customWidth="1"/>
-    <col min="24" max="24" width="58" customWidth="1"/>
+    <col min="19" max="19" width="30.1640625" style="3" customWidth="1"/>
+    <col min="20" max="21" width="28.6640625" customWidth="1"/>
+    <col min="22" max="22" width="22" customWidth="1"/>
+    <col min="23" max="23" width="28" customWidth="1"/>
+    <col min="24" max="24" width="20.6640625" customWidth="1"/>
+    <col min="25" max="25" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:25" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="5" spans="1:25" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
@@ -721,7 +774,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -739,13 +792,13 @@
         <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N9" t="s">
         <v>20</v>
@@ -754,7 +807,7 @@
         <v>14</v>
       </c>
       <c r="P9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q9" t="s">
         <v>15</v>
@@ -762,62 +815,65 @@
       <c r="R9" t="s">
         <v>16</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T9" t="s">
         <v>18</v>
       </c>
-      <c r="T9" t="s">
-        <v>72</v>
-      </c>
       <c r="U9" t="s">
+        <v>70</v>
+      </c>
+      <c r="V9" t="s">
+        <v>31</v>
+      </c>
+      <c r="W9" t="s">
         <v>32</v>
       </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
         <v>33</v>
       </c>
-      <c r="W9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="J10" t="s">
-        <v>31</v>
+      <c r="Y9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="L10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O10" t="s">
         <v>22</v>
       </c>
       <c r="P10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R10" t="s">
-        <v>62</v>
-      </c>
-      <c r="S10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="T10" t="s">
-        <v>63</v>
-      </c>
-      <c r="X10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="U10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1"/>
@@ -825,78 +881,78 @@
       <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="N11" s="6" t="s">
-        <v>53</v>
+      <c r="N11" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P11" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="P11" s="6"/>
       <c r="Q11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="R11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="W11" s="1"/>
+      <c r="X11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="N12" s="6" t="s">
-        <v>54</v>
+      <c r="N12" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P12" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="P12" s="6"/>
       <c r="Q12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="R12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X12" s="1" t="s">
+      <c r="W12" s="1"/>
+      <c r="X12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1"/>
@@ -904,178 +960,227 @@
       <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="N13" s="6" t="s">
-        <v>55</v>
+      <c r="N13" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="N14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y14" s="14"/>
+    </row>
+    <row r="15" spans="1:25" s="8" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="Q13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="H14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-      <c r="Q15" s="4"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="B15" s="7"/>
+      <c r="J15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="8" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P16" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="S16" s="7"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+    </row>
+    <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+    </row>
+    <row r="24" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+    </row>
+    <row r="29" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
+    </row>
+    <row r="39" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>74</v>
+    <row r="46" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/OtherMaterials/DatasetFitsWorkbook.xlsx
+++ b/OtherMaterials/DatasetFitsWorkbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/Graduation/Dissertation/OtherMaterials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1695975-6665-1640-AAEC-4CEE18D8DC18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67D0CB1-B63B-6F4B-8D77-40F9D275C1CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="36800" windowHeight="20260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="36800" windowHeight="20260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="112">
   <si>
     <t>Do all grid jobs with default Tc and Tvw time randomization</t>
   </si>
@@ -144,27 +144,15 @@
     <t>Fit start scan comparison of pileup time shifted data</t>
   </si>
   <si>
-    <t>CBO frequency</t>
-  </si>
-  <si>
-    <t>station 12/18, vary fixed parameters</t>
-  </si>
-  <si>
     <t>CBO envelope</t>
   </si>
   <si>
-    <t>different functional forms</t>
-  </si>
-  <si>
     <t>Pileup gap time scan</t>
   </si>
   <si>
     <t>grid jobs submitted, going, or done</t>
   </si>
   <si>
-    <t>ready to be fit</t>
-  </si>
-  <si>
     <t>use plots from fixed cbo phases amps</t>
   </si>
   <si>
@@ -213,9 +201,6 @@
     <t>maybe skip this entirely</t>
   </si>
   <si>
-    <t>probably skip this</t>
-  </si>
-  <si>
     <t>Gain - unseen gain changes - omit and study after thesis</t>
   </si>
   <si>
@@ -288,9 +273,6 @@
     <t>Wait for Anna's production of a dataset with no SDTP and look at the results with that - maybe just one dataset or maybe more than one</t>
   </si>
   <si>
-    <t>Potentially do 12/18 for all datasets, but then the individual fixed parameters variation for only the Endgame (and maybe the 9d) - probably make another excel spreadsheet</t>
-  </si>
-  <si>
     <t>With and without auto-scaling, in thesis show plots from slide 27 of Elba talk using 9d dataset results</t>
   </si>
   <si>
@@ -301,6 +283,87 @@
   </si>
   <si>
     <t>1 sigma error: 0.697, slope = -7.1 ppb</t>
+  </si>
+  <si>
+    <t>vary fixed parameters in model</t>
+  </si>
+  <si>
+    <t>CBO frequency - station 12/18</t>
+  </si>
+  <si>
+    <t>CBO frequency - fixed parameters</t>
+  </si>
+  <si>
+    <t>Value is the ratio fit R result</t>
+  </si>
+  <si>
+    <t>station 18 - station 12</t>
+  </si>
+  <si>
+    <t>7.5 ppb</t>
+  </si>
+  <si>
+    <t>-2 ppb</t>
+  </si>
+  <si>
+    <t>0.4 ppb</t>
+  </si>
+  <si>
+    <t>8 ppb</t>
+  </si>
+  <si>
+    <t>For fit end scans don't worry about spurious points as long as trends look stable and the R, A, phi and chi2 plots looks good.</t>
+  </si>
+  <si>
+    <t>Not sure what to do about the different values between NA2 and sigmaR, 1660 vs 1700</t>
+  </si>
+  <si>
+    <t>one bad point in T method sigmaR</t>
+  </si>
+  <si>
+    <t>Ignore these fits for now. If I end up doing them potentially only do the individual fixed parameters variation for the Endgame (and maybe the 9d) - probably make another excel spreadsheet.</t>
+  </si>
+  <si>
+    <t>"The statistical errors on the parameters are tiny compared to the systematic errors between the two stations." - Then cite the presentation with the errors just in case as was done for the 60h report. Or cite the elog: https://muon.npl.washington.edu/elog/g2/Tracking+Analysis/184</t>
+  </si>
+  <si>
+    <t>Try fitting with just a floating constant. Compare fixed and unfixed from a T method fit. Might want to get plots from James or a citable source for why I'm using a constant - update figure in tracking section of thesis.</t>
+  </si>
+  <si>
+    <t>C +- error, deltaR with - without, floating then fixed</t>
+  </si>
+  <si>
+    <t>10.7e-4 +- 4.0e-4, -4.3 ppb, 3.6e-4 +- 0, -0.1 ppb</t>
+  </si>
+  <si>
+    <t>10.7e-4 +- 8.3e-4, 17.6 ppb, 3.8e-4 +- 0, 5 ppb</t>
+  </si>
+  <si>
+    <t>-116.8e-4 +- 59.2e-4, 33.7 ppb, 6.8e-4 +- 0, -73.2 ppb</t>
+  </si>
+  <si>
+    <t>All T Method fits converged to a value with an error about half the error. Potentially mention how much the CBO lifetime changes when adding this constant (it about halves).</t>
+  </si>
+  <si>
+    <t>11.6e-4 +- 10.4e-4, -18.0 ppb, 4.5e-4 +- 0, -3.7 ppb</t>
+  </si>
+  <si>
+    <t>artificial deadtime perhaps, talk to Jason/Sudeshna about latest lost muon bias error, bad resistor error</t>
+  </si>
+  <si>
+    <t>conservative / aggressive estimates of the error</t>
+  </si>
+  <si>
+    <t>look into these numbers again</t>
+  </si>
+  <si>
+    <t>Put in favorite plots and numbers as is and then look and see what all the numbers look like in the thesis at the end of the day and potentially drop a point.</t>
+  </si>
+  <si>
+    <t>Maybe just try to argue it away somehow - ultimately what's most important is sigmaR. There's some variation in sigmaR too though unfortunately. Probably show plots from a single dataset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Put in kawall bands on R. </t>
   </si>
 </sst>
 </file>
@@ -371,7 +434,6 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
@@ -398,6 +460,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,84 +747,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y46"/>
+  <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M20" sqref="D20:M20"/>
+      <selection pane="topRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70.5" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="30.83203125" customWidth="1"/>
     <col min="10" max="10" width="39.83203125" customWidth="1"/>
     <col min="11" max="12" width="40" customWidth="1"/>
-    <col min="13" max="13" width="49.1640625" customWidth="1"/>
-    <col min="14" max="14" width="20.83203125" customWidth="1"/>
-    <col min="15" max="16" width="57.1640625" customWidth="1"/>
-    <col min="17" max="17" width="70.6640625" customWidth="1"/>
-    <col min="18" max="18" width="22.6640625" customWidth="1"/>
-    <col min="19" max="19" width="30.1640625" style="3" customWidth="1"/>
-    <col min="20" max="21" width="28.6640625" customWidth="1"/>
-    <col min="22" max="22" width="22" customWidth="1"/>
-    <col min="23" max="23" width="28" customWidth="1"/>
-    <col min="24" max="24" width="20.6640625" customWidth="1"/>
-    <col min="25" max="25" width="58" customWidth="1"/>
+    <col min="13" max="13" width="53" customWidth="1"/>
+    <col min="14" max="14" width="49.1640625" customWidth="1"/>
+    <col min="15" max="15" width="20.83203125" customWidth="1"/>
+    <col min="16" max="17" width="57.1640625" customWidth="1"/>
+    <col min="18" max="18" width="70.6640625" customWidth="1"/>
+    <col min="19" max="19" width="22.6640625" customWidth="1"/>
+    <col min="20" max="20" width="30.1640625" style="2" customWidth="1"/>
+    <col min="21" max="22" width="28.6640625" customWidth="1"/>
+    <col min="23" max="23" width="22" customWidth="1"/>
+    <col min="24" max="24" width="28" customWidth="1"/>
+    <col min="25" max="25" width="40.1640625" customWidth="1"/>
+    <col min="26" max="26" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:25" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="5" spans="1:26" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
@@ -792,395 +857,468 @@
         <v>30</v>
       </c>
       <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>70</v>
+      </c>
+      <c r="R9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U9" t="s">
+        <v>18</v>
+      </c>
+      <c r="V9" t="s">
+        <v>65</v>
+      </c>
+      <c r="W9" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z9" t="s">
         <v>42</v>
       </c>
-      <c r="L9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" t="s">
-        <v>14</v>
-      </c>
-      <c r="P9" t="s">
+    </row>
+    <row r="10" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Q9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" t="s">
-        <v>16</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="T9" t="s">
-        <v>18</v>
-      </c>
-      <c r="U9" t="s">
-        <v>70</v>
-      </c>
-      <c r="V9" t="s">
-        <v>31</v>
-      </c>
-      <c r="W9" t="s">
-        <v>32</v>
-      </c>
-      <c r="X9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="M10" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="N10" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="O10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" t="s">
         <v>22</v>
       </c>
-      <c r="P10" t="s">
-        <v>76</v>
-      </c>
       <c r="Q10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R10" t="s">
-        <v>60</v>
-      </c>
-      <c r="T10" t="s">
-        <v>61</v>
-      </c>
-      <c r="U10" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="S10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1">
+        <v>-20.847899999999999</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="N11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" s="1" t="s">
+      <c r="L11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S11" s="5"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-17.821400000000001</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Y11" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="N12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="1"/>
+      <c r="P12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S12" s="5"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="X12" s="1"/>
       <c r="Y12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1">
+        <v>-17.567399999999999</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="N13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>57</v>
+      <c r="L13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="R13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="S13" s="5"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
       <c r="W13" s="1"/>
-      <c r="X13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1">
+        <v>-17.543299999999999</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="N14" s="5" t="s">
+      <c r="L14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="S14" s="5"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="13"/>
+    </row>
+    <row r="15" spans="1:26" s="7" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="4" t="s">
+      <c r="E15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="R14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y14" s="14"/>
-    </row>
-    <row r="15" spans="1:25" s="8" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="M15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="T15" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="J15" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="P15" s="8" t="s">
+      <c r="Y15" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="7" customFormat="1" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q16" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="Q15" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="8" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P16" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-    </row>
-    <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="R16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="T16" s="6"/>
+      <c r="Y16" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="T17" s="6"/>
+      <c r="Y17" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+    </row>
+    <row r="19" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+    </row>
+    <row r="24" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="K26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="K27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-    </row>
-    <row r="24" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-    </row>
-    <row r="29" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-    </row>
-    <row r="39" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/OtherMaterials/DatasetFitsWorkbook.xlsx
+++ b/OtherMaterials/DatasetFitsWorkbook.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/Graduation/Dissertation/OtherMaterials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67D0CB1-B63B-6F4B-8D77-40F9D275C1CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CEC736-8816-E440-B954-DEBFE23ED6A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="460" windowWidth="36800" windowHeight="20260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
   <si>
     <t>Do all grid jobs with default Tc and Tvw time randomization</t>
   </si>
@@ -198,9 +198,6 @@
     <t>use plots from all free</t>
   </si>
   <si>
-    <t>maybe skip this entirely</t>
-  </si>
-  <si>
     <t>Gain - unseen gain changes - omit and study after thesis</t>
   </si>
   <si>
@@ -264,9 +261,6 @@
     <t>I think for this error I'll need to show the plots I have and then calculate the systematic error slightly differently to how I was planning - mention extraneous points but still show that the slope is flatter than in the T method - take uncertainties from personal communication with Anna or with width of T method curve - final error is still small</t>
   </si>
   <si>
-    <t>Endgame dataset has the most lost muons and the largest fraction of lost muons, that combined with the negligible errors for the different lost muon subractions means that I should be able to just take the Endgame results</t>
-  </si>
-  <si>
     <t>STDP</t>
   </si>
   <si>
@@ -279,9 +273,6 @@
     <t>-40.1 ppb</t>
   </si>
   <si>
-    <t>my only worry here is that the lost muons on/off column for the various datasets is a lot larger for the non-endgame datasets surprisingly so I might want to do it for one of those</t>
-  </si>
-  <si>
     <t>1 sigma error: 0.697, slope = -7.1 ppb</t>
   </si>
   <si>
@@ -312,9 +303,6 @@
     <t>8 ppb</t>
   </si>
   <si>
-    <t>For fit end scans don't worry about spurious points as long as trends look stable and the R, A, phi and chi2 plots looks good.</t>
-  </si>
-  <si>
     <t>Not sure what to do about the different values between NA2 and sigmaR, 1660 vs 1700</t>
   </si>
   <si>
@@ -354,16 +342,25 @@
     <t>conservative / aggressive estimates of the error</t>
   </si>
   <si>
-    <t>look into these numbers again</t>
-  </si>
-  <si>
     <t>Put in favorite plots and numbers as is and then look and see what all the numbers look like in the thesis at the end of the day and potentially drop a point.</t>
   </si>
   <si>
     <t>Maybe just try to argue it away somehow - ultimately what's most important is sigmaR. There's some variation in sigmaR too though unfortunately. Probably show plots from a single dataset.</t>
   </si>
   <si>
-    <t xml:space="preserve">Put in kawall bands on R. </t>
+    <t>Some bug in the bin width scanning code - ratio fits are bad, T method fits are different even with the same bin width as compared to the single iter fits</t>
+  </si>
+  <si>
+    <t>Endgame dataset has the most lost muons and the largest fraction of lost muons, that combined with the negligible errors for the different lost muon subractions means that I should be able to just take the Endgame results, 9d results also show negligible change</t>
+  </si>
+  <si>
+    <t>look into these numbers again - don't understant the large change in 9d compared to endgame - also didn't I find that the on off value was equal to the slope extrapolation?</t>
+  </si>
+  <si>
+    <t>Doesn't really tell me any more than the amplitude scans.</t>
+  </si>
+  <si>
+    <t>For fit end scans don't worry about spurious points since trends look stable and the R, A, phi and chi2 plots looks good.</t>
   </si>
 </sst>
 </file>
@@ -750,8 +747,8 @@
   <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D17" sqref="D17"/>
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -769,12 +766,13 @@
     <col min="11" max="12" width="40" customWidth="1"/>
     <col min="13" max="13" width="53" customWidth="1"/>
     <col min="14" max="14" width="49.1640625" customWidth="1"/>
-    <col min="15" max="15" width="20.83203125" customWidth="1"/>
+    <col min="15" max="15" width="35.83203125" customWidth="1"/>
     <col min="16" max="17" width="57.1640625" customWidth="1"/>
     <col min="18" max="18" width="70.6640625" customWidth="1"/>
     <col min="19" max="19" width="22.6640625" customWidth="1"/>
     <col min="20" max="20" width="30.1640625" style="2" customWidth="1"/>
-    <col min="21" max="22" width="28.6640625" customWidth="1"/>
+    <col min="21" max="21" width="36.6640625" customWidth="1"/>
+    <col min="22" max="22" width="28.6640625" customWidth="1"/>
     <col min="23" max="23" width="22" customWidth="1"/>
     <col min="24" max="24" width="28" customWidth="1"/>
     <col min="25" max="25" width="40.1640625" customWidth="1"/>
@@ -818,7 +816,7 @@
     </row>
     <row r="7" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -860,10 +858,10 @@
         <v>39</v>
       </c>
       <c r="L9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N9" t="s">
         <v>38</v>
@@ -875,7 +873,7 @@
         <v>14</v>
       </c>
       <c r="Q9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R9" t="s">
         <v>15</v>
@@ -884,13 +882,13 @@
         <v>16</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s">
         <v>18</v>
       </c>
       <c r="V9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W9" t="s">
         <v>31</v>
@@ -907,16 +905,16 @@
     </row>
     <row r="10" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
         <v>47</v>
@@ -925,13 +923,10 @@
         <v>22</v>
       </c>
       <c r="Q10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R10" t="s">
-        <v>68</v>
-      </c>
-      <c r="S10" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="Z10" t="s">
         <v>54</v>
@@ -956,11 +951,11 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>48</v>
@@ -970,11 +965,11 @@
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S11" s="5"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -1005,11 +1000,11 @@
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>49</v>
@@ -1017,17 +1012,19 @@
       <c r="P12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q12" s="5"/>
+      <c r="Q12" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="R12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S12" s="5"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>23</v>
@@ -1052,11 +1049,11 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>50</v>
@@ -1065,14 +1062,14 @@
         <v>53</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S13" s="5"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
@@ -1088,7 +1085,7 @@
         <v>-17.543299999999999</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>41</v>
@@ -1101,25 +1098,25 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S14" s="5"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -1127,132 +1124,133 @@
     </row>
     <row r="15" spans="1:26" s="7" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="T15" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="R15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="T15" s="6" t="s">
-        <v>80</v>
+      <c r="U15" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="Y15" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="7" customFormat="1" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q16" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="R16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="T16" s="6"/>
       <c r="Y16" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T17" s="6"/>
-      <c r="Y17" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="K26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="K27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>28</v>
       </c>
@@ -1283,42 +1281,42 @@
     </row>
     <row r="39" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/OtherMaterials/DatasetFitsWorkbook.xlsx
+++ b/OtherMaterials/DatasetFitsWorkbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/Graduation/Dissertation/OtherMaterials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CEC736-8816-E440-B954-DEBFE23ED6A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FAC622-DE67-4B48-BA13-28550981CA57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="460" windowWidth="36800" windowHeight="20260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="113">
   <si>
     <t>Do all grid jobs with default Tc and Tvw time randomization</t>
   </si>
@@ -327,9 +327,6 @@
     <t>10.7e-4 +- 8.3e-4, 17.6 ppb, 3.8e-4 +- 0, 5 ppb</t>
   </si>
   <si>
-    <t>-116.8e-4 +- 59.2e-4, 33.7 ppb, 6.8e-4 +- 0, -73.2 ppb</t>
-  </si>
-  <si>
     <t>All T Method fits converged to a value with an error about half the error. Potentially mention how much the CBO lifetime changes when adding this constant (it about halves).</t>
   </si>
   <si>
@@ -354,13 +351,22 @@
     <t>Endgame dataset has the most lost muons and the largest fraction of lost muons, that combined with the negligible errors for the different lost muon subractions means that I should be able to just take the Endgame results, 9d results also show negligible change</t>
   </si>
   <si>
-    <t>look into these numbers again - don't understant the large change in 9d compared to endgame - also didn't I find that the on off value was equal to the slope extrapolation?</t>
-  </si>
-  <si>
     <t>Doesn't really tell me any more than the amplitude scans.</t>
   </si>
   <si>
     <t>For fit end scans don't worry about spurious points since trends look stable and the R, A, phi and chi2 plots looks good.</t>
+  </si>
+  <si>
+    <t>-13.5e-4 +- 12.2e-4, 28.7 ppb, 6.8e-4 +- 0, -73.2 ppb</t>
+  </si>
+  <si>
+    <t>For the 9d, the constant wants to converge to a negative value. The CBO lifetime wants to go high (past 600 us) so in order to get a nicely converging fit I fix the CBO lifetime and then let the constant float negative. Fixing the value from the T method results in the wrong value and a large change on R.</t>
+  </si>
+  <si>
+    <t>Take as my error the slope times one in the T method sigma error. That will be really small, and then also take as a maximum bound the change in R from the lost muons on/off column. I can get rid of it later if my readers are confused. The on/off number is a lot larger but still small in the grand scheme of things.</t>
+  </si>
+  <si>
+    <t>I still don't understant the greater dependence in the 9d relative to the Endgame for R on the lost muons, when the it's the endgame that has the most lost muons. That's a mystery but potentially I can just mention it as an oddity observed in the data and leave it at that.</t>
   </si>
 </sst>
 </file>
@@ -428,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -457,7 +463,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,8 +752,8 @@
   <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E23" sqref="E23"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -764,8 +769,8 @@
     <col min="9" max="9" width="30.83203125" customWidth="1"/>
     <col min="10" max="10" width="39.83203125" customWidth="1"/>
     <col min="11" max="12" width="40" customWidth="1"/>
-    <col min="13" max="13" width="53" customWidth="1"/>
-    <col min="14" max="14" width="49.1640625" customWidth="1"/>
+    <col min="13" max="13" width="55.6640625" customWidth="1"/>
+    <col min="14" max="14" width="51.5" customWidth="1"/>
     <col min="15" max="15" width="35.83203125" customWidth="1"/>
     <col min="16" max="17" width="57.1640625" customWidth="1"/>
     <col min="18" max="18" width="70.6640625" customWidth="1"/>
@@ -1003,8 +1008,8 @@
         <v>88</v>
       </c>
       <c r="M12" s="5"/>
-      <c r="N12" s="14" t="s">
-        <v>99</v>
+      <c r="N12" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>49</v>
@@ -1102,7 +1107,7 @@
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>80</v>
@@ -1130,7 +1135,7 @@
         <v>85</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>79</v>
@@ -1141,20 +1146,23 @@
       <c r="N15" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="P15" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="Q15" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R15" s="6" t="s">
         <v>76</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T15" s="6" t="s">
         <v>78</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y15" s="6" t="s">
         <v>91</v>
@@ -1168,23 +1176,27 @@
         <v>94</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T16" s="6"/>
       <c r="Y16" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="7" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>74</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="T17" s="6"/>
     </row>
@@ -1196,7 +1208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>61</v>
       </c>
@@ -1223,13 +1235,13 @@
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="K26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="K27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">

--- a/OtherMaterials/DatasetFitsWorkbook.xlsx
+++ b/OtherMaterials/DatasetFitsWorkbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/Graduation/Dissertation/OtherMaterials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FAC622-DE67-4B48-BA13-28550981CA57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A13317F-58A0-9846-9618-1E50F654C0E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="460" windowWidth="36800" windowHeight="20260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
   <si>
     <t>Do all grid jobs with default Tc and Tvw time randomization</t>
   </si>
@@ -219,16 +219,10 @@
     <t>IFG lifetime - skip for thesis as the amplitude scan is pretty much the same thing</t>
   </si>
   <si>
-    <t xml:space="preserve">Bin width scan - point towards earlier results showing no trend and FR plots showing choice of default bin width </t>
-  </si>
-  <si>
     <t>Bin edge scan</t>
   </si>
   <si>
     <t>study to be ignored or omitted for thesis with justification, potentially add in later if there is time</t>
-  </si>
-  <si>
-    <t>Bin edge scan - similar to bin width scan</t>
   </si>
   <si>
     <t xml:space="preserve">grid jobs submitted at 0, 0.5, 1, 1.5, 2 </t>
@@ -752,8 +746,8 @@
   <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O23" sqref="O23"/>
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -821,7 +815,7 @@
     </row>
     <row r="7" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -863,10 +857,10 @@
         <v>39</v>
       </c>
       <c r="L9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N9" t="s">
         <v>38</v>
@@ -878,7 +872,7 @@
         <v>14</v>
       </c>
       <c r="Q9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R9" t="s">
         <v>15</v>
@@ -887,13 +881,13 @@
         <v>16</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s">
         <v>18</v>
       </c>
       <c r="V9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W9" t="s">
         <v>31</v>
@@ -910,16 +904,16 @@
     </row>
     <row r="10" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O10" t="s">
         <v>47</v>
@@ -928,10 +922,10 @@
         <v>22</v>
       </c>
       <c r="Q10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Z10" t="s">
         <v>54</v>
@@ -956,11 +950,11 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>48</v>
@@ -970,7 +964,7 @@
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S11" s="5"/>
       <c r="U11" s="3"/>
@@ -1005,11 +999,11 @@
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>49</v>
@@ -1018,10 +1012,10 @@
         <v>52</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S12" s="5"/>
       <c r="U12" s="3"/>
@@ -1029,7 +1023,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>23</v>
@@ -1054,11 +1048,11 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>50</v>
@@ -1067,10 +1061,10 @@
         <v>53</v>
       </c>
       <c r="Q13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R13" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="S13" s="5"/>
       <c r="U13" s="3"/>
@@ -1090,7 +1084,7 @@
         <v>-17.543299999999999</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>41</v>
@@ -1103,21 +1097,21 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S14" s="5"/>
       <c r="U14" s="3"/>
@@ -1129,74 +1123,74 @@
     </row>
     <row r="15" spans="1:26" s="7" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="R15" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="R15" s="6" t="s">
+      <c r="S15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="T15" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="S15" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="T15" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="U15" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Y15" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="7" customFormat="1" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T16" s="6"/>
       <c r="Y16" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="7" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T17" s="6"/>
     </row>
@@ -1235,13 +1229,13 @@
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="K26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="K27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
@@ -1321,15 +1315,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>66</v>
-      </c>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OtherMaterials/DatasetFitsWorkbook.xlsx
+++ b/OtherMaterials/DatasetFitsWorkbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/Graduation/Dissertation/OtherMaterials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A13317F-58A0-9846-9618-1E50F654C0E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02516084-2CC9-EC45-B079-AC98C412BBBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="460" windowWidth="36800" windowHeight="20260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,9 +339,6 @@
     <t>Maybe just try to argue it away somehow - ultimately what's most important is sigmaR. There's some variation in sigmaR too though unfortunately. Probably show plots from a single dataset.</t>
   </si>
   <si>
-    <t>Some bug in the bin width scanning code - ratio fits are bad, T method fits are different even with the same bin width as compared to the single iter fits</t>
-  </si>
-  <si>
     <t>Endgame dataset has the most lost muons and the largest fraction of lost muons, that combined with the negligible errors for the different lost muon subractions means that I should be able to just take the Endgame results, 9d results also show negligible change</t>
   </si>
   <si>
@@ -361,6 +358,9 @@
   </si>
   <si>
     <t>I still don't understant the greater dependence in the 9d relative to the Endgame for R on the lost muons, when the it's the endgame that has the most lost muons. That's a mystery but potentially I can just mention it as an oddity observed in the data and leave it at that.</t>
+  </si>
+  <si>
+    <t>Show plots from various datasets and claim no trend and so no systematic error.</t>
   </si>
 </sst>
 </file>
@@ -746,8 +746,8 @@
   <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X22" sqref="X22"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -967,7 +967,7 @@
         <v>66</v>
       </c>
       <c r="S11" s="5"/>
-      <c r="U11" s="3"/>
+      <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>49</v>
@@ -1018,7 +1018,7 @@
         <v>66</v>
       </c>
       <c r="S12" s="5"/>
-      <c r="U12" s="3"/>
+      <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -1067,7 +1067,7 @@
         <v>71</v>
       </c>
       <c r="S13" s="5"/>
-      <c r="U13" s="3"/>
+      <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -1114,7 +1114,7 @@
         <v>73</v>
       </c>
       <c r="S14" s="5"/>
-      <c r="U14" s="3"/>
+      <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -1129,7 +1129,7 @@
         <v>83</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>77</v>
@@ -1141,22 +1141,22 @@
         <v>93</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R15" s="6" t="s">
         <v>74</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T15" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="U15" s="10" t="s">
-        <v>103</v>
+      <c r="U15" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="Y15" s="6" t="s">
         <v>89</v>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="7" t="s">
@@ -1190,7 +1190,7 @@
         <v>72</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T17" s="6"/>
     </row>

--- a/OtherMaterials/DatasetFitsWorkbook.xlsx
+++ b/OtherMaterials/DatasetFitsWorkbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/Graduation/Dissertation/OtherMaterials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02516084-2CC9-EC45-B079-AC98C412BBBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75950D9-9E4B-EE45-BB62-1EC40E13ED92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="460" windowWidth="36800" windowHeight="20260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="110">
   <si>
     <t>Do all grid jobs with default Tc and Tvw time randomization</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Plots to make</t>
   </si>
   <si>
-    <t>dataset combined lost muon fractions</t>
-  </si>
-  <si>
     <t>other dataset combination plots</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>Row number analysis - ignore this</t>
   </si>
   <si>
-    <t>Gain - short term double pulse - work with James to produce clusters for one dataset</t>
-  </si>
-  <si>
     <t>IFG lifetime - skip for thesis as the amplitude scan is pretty much the same thing</t>
   </si>
   <si>
@@ -361,6 +355,9 @@
   </si>
   <si>
     <t>Show plots from various datasets and claim no trend and so no systematic error.</t>
+  </si>
+  <si>
+    <t>Gain - short term double pulse</t>
   </si>
 </sst>
 </file>
@@ -746,13 +743,13 @@
   <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C17" sqref="C17"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="70.5" customWidth="1"/>
+    <col min="1" max="1" width="71.1640625" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
     <col min="4" max="4" width="33.6640625" customWidth="1"/>
@@ -805,17 +802,17 @@
     </row>
     <row r="5" spans="1:26" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -836,7 +833,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -851,19 +848,19 @@
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O9" t="s">
         <v>20</v>
@@ -872,7 +869,7 @@
         <v>14</v>
       </c>
       <c r="Q9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R9" t="s">
         <v>15</v>
@@ -881,54 +878,54 @@
         <v>16</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s">
         <v>18</v>
       </c>
       <c r="V9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W9" t="s">
+        <v>30</v>
+      </c>
+      <c r="X9" t="s">
         <v>31</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>32</v>
       </c>
-      <c r="Y9" t="s">
-        <v>33</v>
-      </c>
       <c r="Z9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P10" t="s">
         <v>22</v>
       </c>
       <c r="Q10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Z10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -950,21 +947,21 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S11" s="5"/>
       <c r="U11" s="1"/>
@@ -973,7 +970,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -984,10 +981,10 @@
         <v>-17.821400000000001</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -995,27 +992,27 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S12" s="5"/>
       <c r="U12" s="1"/>
@@ -1023,7 +1020,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>23</v>
@@ -1038,7 +1035,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1048,23 +1045,23 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R13" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="S13" s="5"/>
       <c r="U13" s="1"/>
@@ -1073,7 +1070,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -1084,10 +1081,10 @@
         <v>-17.543299999999999</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1097,21 +1094,21 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S14" s="5"/>
       <c r="U14" s="1"/>
@@ -1123,74 +1120,74 @@
     </row>
     <row r="15" spans="1:26" s="7" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R15" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P15" s="7" t="s">
+      <c r="S15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="U15" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="Q15" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="T15" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="U15" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="Y15" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="7" customFormat="1" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T16" s="6"/>
       <c r="Y16" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="7" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T17" s="6"/>
     </row>
@@ -1199,44 +1196,36 @@
     </row>
     <row r="19" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-    </row>
-    <row r="24" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="K26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="K27" t="s">
-        <v>100</v>
-      </c>
+    <row r="22" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="7" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T26" s="6"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
@@ -1246,34 +1235,32 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>25</v>
-      </c>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
@@ -1287,32 +1274,32 @@
     </row>
     <row r="39" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">

--- a/OtherMaterials/DatasetFitsWorkbook.xlsx
+++ b/OtherMaterials/DatasetFitsWorkbook.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/Graduation/Dissertation/OtherMaterials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NickPC/Documents/GraduationRequirements/Dissertation/OtherMaterials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75950D9-9E4B-EE45-BB62-1EC40E13ED92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="460" windowWidth="36800" windowHeight="20260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="107">
   <si>
     <t>Do all grid jobs with default Tc and Tvw time randomization</t>
   </si>
@@ -111,12 +110,6 @@
     <t>use plots from fixed cbo A A</t>
   </si>
   <si>
-    <t>correlation matrices</t>
-  </si>
-  <si>
-    <t>pileup spectra plots</t>
-  </si>
-  <si>
     <t>Pileup deadtime scan</t>
   </si>
   <si>
@@ -127,9 +120,6 @@
   </si>
   <si>
     <t>Energy threshold scan</t>
-  </si>
-  <si>
-    <t>FFTs and residual plots (careful with hardcoded lines)</t>
   </si>
   <si>
     <t>Fit end scans</t>
@@ -363,7 +353,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -381,7 +371,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,6 +402,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -425,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -454,6 +450,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,12 +736,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J26" sqref="J26"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -775,7 +772,7 @@
     <col min="26" max="26" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -784,12 +781,12 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -802,24 +799,24 @@
     </row>
     <row r="5" spans="1:26" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
@@ -833,7 +830,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -848,19 +845,19 @@
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="O9" t="s">
         <v>20</v>
@@ -869,66 +866,66 @@
         <v>14</v>
       </c>
       <c r="Q9" t="s">
-        <v>65</v>
-      </c>
-      <c r="R9" t="s">
+        <v>62</v>
+      </c>
+      <c r="R9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="T9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="T9" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="U9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="V9" t="s">
-        <v>61</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="V9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="W9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y9" t="s">
         <v>30</v>
       </c>
-      <c r="X9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>32</v>
-      </c>
       <c r="Z9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P10" t="s">
         <v>22</v>
       </c>
       <c r="Q10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Z10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>3</v>
       </c>
@@ -947,21 +944,21 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S11" s="5"/>
       <c r="U11" s="1"/>
@@ -970,10 +967,10 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>4</v>
       </c>
@@ -981,10 +978,10 @@
         <v>-17.821400000000001</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -992,27 +989,27 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="Q12" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S12" s="5"/>
       <c r="U12" s="1"/>
@@ -1020,13 +1017,13 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>5</v>
       </c>
@@ -1045,23 +1042,23 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="Q13" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S13" s="5"/>
       <c r="U13" s="1"/>
@@ -1070,10 +1067,10 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
@@ -1081,10 +1078,10 @@
         <v>-17.543299999999999</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1094,21 +1091,21 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="S14" s="5"/>
       <c r="U14" s="1"/>
@@ -1120,108 +1117,108 @@
     </row>
     <row r="15" spans="1:26" s="7" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="Q15" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Y15" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="7" customFormat="1" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="T16" s="6"/>
       <c r="Y16" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="7" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="T17" s="6"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="7" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
@@ -1230,7 +1227,7 @@
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>24</v>
       </c>
@@ -1238,29 +1235,23 @@
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
@@ -1272,34 +1263,34 @@
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">

--- a/OtherMaterials/DatasetFitsWorkbook.xlsx
+++ b/OtherMaterials/DatasetFitsWorkbook.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -146,9 +146,6 @@
     <t>Bunch number fits</t>
   </si>
   <si>
-    <t>3500 MeV cut for pileup plots</t>
-  </si>
-  <si>
     <t>same R mean as without 2N CBO</t>
   </si>
   <si>
@@ -348,6 +345,9 @@
   </si>
   <si>
     <t>Gain - short term double pulse</t>
+  </si>
+  <si>
+    <t>maybe I should do more gain point fits</t>
   </si>
 </sst>
 </file>
@@ -739,9 +739,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -804,12 +804,12 @@
     </row>
     <row r="6" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -851,10 +851,10 @@
         <v>35</v>
       </c>
       <c r="L9" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>34</v>
@@ -866,7 +866,7 @@
         <v>14</v>
       </c>
       <c r="Q9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R9" s="14" t="s">
         <v>15</v>
@@ -875,13 +875,13 @@
         <v>16</v>
       </c>
       <c r="T9" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U9" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V9" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W9" s="14" t="s">
         <v>28</v>
@@ -898,31 +898,31 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P10" t="s">
         <v>22</v>
       </c>
       <c r="Q10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -944,21 +944,21 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S11" s="5"/>
       <c r="U11" s="1"/>
@@ -967,7 +967,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -978,7 +978,7 @@
         <v>-17.821400000000001</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>37</v>
@@ -989,27 +989,27 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S12" s="5"/>
       <c r="U12" s="1"/>
@@ -1017,7 +1017,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>23</v>
@@ -1042,23 +1042,23 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S13" s="5"/>
       <c r="U13" s="1"/>
@@ -1067,7 +1067,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -1078,7 +1078,7 @@
         <v>-17.543299999999999</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>37</v>
@@ -1091,21 +1091,21 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S14" s="5"/>
       <c r="U14" s="1"/>
@@ -1117,74 +1117,77 @@
     </row>
     <row r="15" spans="1:26" s="7" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="S15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="R15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="T15" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y15" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="7" customFormat="1" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T16" s="6"/>
       <c r="Y16" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="7" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="T17" s="6"/>
     </row>
@@ -1198,7 +1201,7 @@
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -1207,18 +1210,16 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>39</v>
-      </c>
+      <c r="A22" s="6"/>
     </row>
     <row r="23" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="7" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
@@ -1265,32 +1266,32 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
